--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2334819\PlaywrightUIAutomationFoodsOFP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2334819\PlaywrightUIDRBAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EACFA3-F2EB-4431-B853-F9CA0820D79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB58C404-F5E5-4AC6-BEAF-38D15226B2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E2B2B873-4FE3-4AE6-9C19-CBE89853B46F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,92 +36,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
-  <si>
-    <t>Login Journey: Navigate to baseUrl → Enter username from .env → Enter password → Click Login → Verify Home Page</t>
-  </si>
-  <si>
-    <t>Range Creation Journey (End-to-End):</t>
-  </si>
-  <si>
-    <t>Upload_sample.xlsx</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Features</t>
   </si>
   <si>
-    <t>Pre-requisite: User must be logged in and should be on the Home Page</t>
+    <t>Pre-requisite</t>
+  </si>
+  <si>
+    <t>Menu Navigation</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
   </si>
   <si>
     <t xml:space="preserve">Test Data </t>
   </si>
   <si>
-    <t>Products -&gt; New Product Development</t>
-  </si>
-  <si>
-    <t>Menu Navigation</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>TYPE : Standard NPD
-TEMPLATE TYPE : Hospitality                                FINANCIAL YEAR : 2025-2026                     CLUSTER : Hospitality                                    BUYER: Nadarajan, Aavudai</t>
-  </si>
-  <si>
-    <t>Edit Existing Product Information</t>
-  </si>
-  <si>
-    <t>Existing Project Download/Deletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFP Users should be able to delete the availble project                                                                     1) Click three-dots icon available for the created project from the list of Product Development Projects                                                                                                                                      2) Download and Delete options should be available in the dropdownMenuLink                 3) when user click 'Download', file should be downloaded and file name should be project name.xlsm                                                                                                                                                4) When user click 'Delete' option, then confirmation popup will be displayed                       5) Confirmation popup will have following confirmation text 'Are you sure you want to delete' and also 'All data included within the project will be lost. This action cannot be reversed.'                                                                                                                                                                6) Confirmation popup should have two buttons 'Cancel' and 'Delete'                                               7) Clicking 'Cancel' will discard the operation                                                                                          8) Clicking 'Delete', project will be deleted and user should be able to see 'PAL Project test has been deleted' notification                                                                                                                    9) User shouldn't be able to see the deleted project from the Product Development Projects list                                                                                             </t>
-  </si>
-  <si>
-    <t>New Project Development</t>
-  </si>
-  <si>
-    <t>Add New Product</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to see three sub-menu 'GSCOP', 'Supplier Help', 'Useful Links'.          On clicking  GSCOP, user should be redirected to GSCOP page '/home/resources/gscop'     On clicking Supplier Help, user should be redirected to Help &amp; Support page '/home/resources/faq'                                                                                                                                   On clicking Useful Links, user should be redirected to Useful Links page '/home/resources/useful-links'                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortcuts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to create shortcut for any pages in the application.                                        1) Navigate to any page in application (Example: Resources -&gt; Useful Links)                              2) Click Shortcuts Menu and user should be able to see sub-menu 'Add current page'          3) When user clicks 'Add current page' sub-menu link, user should be able to see Add New Shortcut window with 'cancel' and 'save' button                                                                                                                                 4) User should be able to see the PAGE SELECTED field already populated based on the page we navigated initially                                                                                                                                    5) Provide random 'SHORTCUT TITLE'                                                                                                           6) When user click 'save' button to save, the added shortcut should be listed in the submenu links under shortcuts menu option.                                                                                              7) On clicking the added shortcut, then user should be naviagted to the page for which shortcut was added. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFP Users should be able to add new product in the newly created project                                                                                     User should be able to create project successfully as defined in 'New Project Development' and user able to see project in Product Development Projects table                                                                                               1)  Click the newly created project name in the 'Product Development Projects' table.         2) User will be redirected to the Products page with 'Add New Product' button                          3) On clicking 'Add New Product', Add Product window need to be opened                              4) Add Product window need to have following Required fields PRODUCT TITLE,                                                                                                           CATEGORY, REASON FOR CHANGE, BUYER. These fields will be marked as 'Required' above the fields.                                                                                                                                                    4.1) Following are optional fields UPC, SUPPLIER, WEIGHT, PRODUCT TYPE, FIND PRODUCT FILE TYPE, SUB RANGE, COMMENTS, PRODUCT DEVELOPER, FOOD TECHNOLOGIST, SUPPLIER CONTACT.                                                                                                                                       4.2) 'Keep adding products' checbox in enabled state and Add New, Add &amp; Import in disabled state.                                                                                                                                                          5) When user click close button at the top, window should be closed.                                                                                                        </t>
-  </si>
-  <si>
-    <t>OFP Users can able to create 'New PAL Project'                                                                                     1) By default, user will be in Active tab.                                                                                                             2) Active tab will have 'New Pal Project' button. On click, user will be taken to 'Add Product Development Project' window                                                                                                        3) Provide unique 'PROJECT TITLE',                                                                                                              Select desired 'TYPE' from dropdown,                                                                                                    Select desired 'TEMPLATE TYPE' from dropdown,                                                                            Select desired 'FINANCIAL YEAR' from dropdown,                                                                                 Select random available 'PROJECT LAUNCH DATE' from calender,                                                             Select 'Buyer' from dropdown                                                                                                                            4) After giving all details, when user click 'Add' button, user should be notified with 'Saved Successfully' on successful creation.                                                                                               5) User should be able to see created Project in the table and other provided details while creation should be displayed correctly</t>
-  </si>
-  <si>
-    <t>OFP Users should be able to add new product in the newly created project                                                                                     User should be able to create project successfully as defined in 'New Project Development' and user able to see project in Product Development Projects table                                                                                               1)  Click the newly created project name in the 'Product Development Projects' table.        2)  User will be redirected to the detail of the selected project                                                        3)  When user click 'Information' tab, Project information should be available in editable format.                                                                                                                                                                               4) Edit 'PROJECT NAME' and click ENTER on the project name textbox, then  changes should be saved and user should able to see success notification "Saved Successfully"                         5) Changes made in the 'PROJECT NAME' should be reflected in the Product Development Projects table</t>
+    <t>User must be logged in and should be on the Home Page</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Feature_1: Range Creation</t>
+  </si>
+  <si>
+    <t>Feature_2: Product Tile Validation</t>
+  </si>
+  <si>
+    <t>Feature_3: Magnifier Tool for Product Preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User must be logged in and should be on the Home page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU : LINGERIE
+Department : T32 SHAPE VEST THERMAL </t>
+  </si>
+  <si>
+    <t>BU : LINGERIE
+Department : T32 SHAPE VEST THERMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User must be logged in and should be on the Home page.
+</t>
+  </si>
+  <si>
+    <t>1) User need to select 'BU' from BU list in home page to navigate to Department listing page                         2) Click 'Department' from Dept list for the selected BU                                             3) Then 'Next' button will be displayed                          4) Clicking button should take the user to product listing page</t>
+  </si>
+  <si>
+    <t>1) User can click and select products from the Product Listing Page (PLP).
+2) 'Move to Range Builder' option will be displayed right side bottom                             3) When user click 'Move to Range Builder', then user will be navigated to Range builder page and url should contain '/range-builder'                                                      4) Range builder page should show the choosen products from the PLP screen in the left side panel , referred to as the Range basket.                                                       5) Drag and drop products from the basket to the right side, which is the Range Window one by one.
+6) Enter a name for the new Range.
+7) Click 'Save' icon present in the right side bottom                                                            8) Upon clicking Save, the Range is created and following notification  "Success:Saved Successfully" should be observed.</t>
+  </si>
+  <si>
+    <t>In PLP page, product should contain Product tile contains information such as New Flag, Product Description, Color, Price, Department, Stroke (Dept-ID/ColorCode), Total cash buy, Previous Quantity, Current Quantity, Cancelled Quantity, Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user Hover over a product on the PLP page, then tile to zoom in for better visibility </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -133,26 +120,18 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,14 +156,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,60 +180,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,171 +537,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F839A22-77F5-42A3-AF30-EF363435C75C}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91C0154-D4BB-4B5D-AF16-30DF83EFCD00}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="33.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{CE22E12D-0DD9-4BF4-B32B-12E8430725ED}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91C0154-D4BB-4B5D-AF16-30DF83EFCD00}">
-  <dimension ref="A2:A4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="102" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="2" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="189" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
